--- a/Discover_Top_Categories/src/test/resources/ExcelData/testInputs.xlsx
+++ b/Discover_Top_Categories/src/test/resources/ExcelData/testInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint_Implementation\Discover_Top_Categories\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095F644A-FB56-43C2-9BA4-70A0D776FCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708256C7-64E7-4350-A1EB-B0A1EDC08207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="14400" windowHeight="8170" xr2:uid="{7F9DE1D0-54D0-412B-B09D-CB7E0B7C1C07}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7F9DE1D0-54D0-412B-B09D-CB7E0B7C1C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Diya</t>
   </si>
@@ -53,22 +44,37 @@
     <t>abc@gmail.com</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>applyButton</t>
+  </si>
+  <si>
+    <t>//button[text()='Apply']</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
     <t>Category</t>
   </si>
   <si>
-    <t>Button Label</t>
-  </si>
-  <si>
-    <t>Post Graduate Program</t>
-  </si>
-  <si>
-    <t>Apply Now</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>https://www.edureka.co/</t>
+    <t>Software Testing</t>
+  </si>
+  <si>
+    <t>Software Testing Courses</t>
+  </si>
+  <si>
+    <t>ExpectedTitle</t>
   </si>
 </sst>
 </file>
@@ -458,70 +464,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14035738-E3C4-4FA4-8806-F517CEA2B9E8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.90625" customWidth="1"/>
     <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
+      <c r="G2">
+        <v>9390799743</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>9390799743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D4" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{1166A941-C345-41DE-B1F8-CACF09070E78}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{DD526BA6-4243-4D61-A84B-D99AD63A99E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Discover_Top_Categories/src/test/resources/ExcelData/testInputs.xlsx
+++ b/Discover_Top_Categories/src/test/resources/ExcelData/testInputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint_Implementation\Discover_Top_Categories\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708256C7-64E7-4350-A1EB-B0A1EDC08207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFB6EAE-03CF-4F23-908F-B5316908C2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7F9DE1D0-54D0-412B-B09D-CB7E0B7C1C07}"/>
   </bookViews>
@@ -36,45 +36,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Diya</t>
   </si>
   <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
     <t>Data Science</t>
   </si>
   <si>
-    <t>applyButton</t>
-  </si>
-  <si>
-    <t>//button[text()='Apply']</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Software Testing</t>
   </si>
   <si>
-    <t>Software Testing Courses</t>
-  </si>
-  <si>
-    <t>ExpectedTitle</t>
+    <t>abc@gmail.co m</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email ID</t>
+  </si>
+  <si>
+    <t>PhoneNo</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>John@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -464,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14035738-E3C4-4FA4-8806-F517CEA2B9E8}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,61 +474,63 @@
     <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>9390799743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1235467890</v>
+      </c>
+      <c r="F3" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>9390799743</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D4" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{DD526BA6-4243-4D61-A84B-D99AD63A99E7}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{52131E48-AF23-40D7-B76F-5A3069048587}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D7C0E1B3-C24C-4237-BED0-8E9A0B248CFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Discover_Top_Categories/src/test/resources/ExcelData/testInputs.xlsx
+++ b/Discover_Top_Categories/src/test/resources/ExcelData/testInputs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint_Implementation\Discover_Top_Categories\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFB6EAE-03CF-4F23-908F-B5316908C2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC75FE6-BA56-4B6F-9056-4B03BC26B529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{7F9DE1D0-54D0-412B-B09D-CB7E0B7C1C07}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{7F9DE1D0-54D0-412B-B09D-CB7E0B7C1C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,26 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Diya</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Software Testing</t>
-  </si>
-  <si>
-    <t>abc@gmail.co m</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -69,13 +55,22 @@
   </si>
   <si>
     <t>John@gmail.com</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Email_ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,12 +85,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,10 +108,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -458,79 +446,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14035738-E3C4-4FA4-8806-F517CEA2B9E8}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.90625" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.90625" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2">
+        <v>9390799743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>9390799743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="C3">
         <v>1235467890</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D5" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{52131E48-AF23-40D7-B76F-5A3069048587}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{D7C0E1B3-C24C-4237-BED0-8E9A0B248CFF}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{D7C0E1B3-C24C-4237-BED0-8E9A0B248CFF}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{52131E48-AF23-40D7-B76F-5A3069048587}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC039628-942D-432E-A93C-F3F7392934FA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>9390799743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1235467890</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{72CB7DFA-D15C-4A82-BD63-6821028E33B1}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{6E745D82-3993-4E09-969C-800CABA52EF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Discover_Top_Categories/src/test/resources/ExcelData/testInputs.xlsx
+++ b/Discover_Top_Categories/src/test/resources/ExcelData/testInputs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint_Implementation\Discover_Top_Categories\src\test\resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC75FE6-BA56-4B6F-9056-4B03BC26B529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D6CA51-1C85-4BCF-A68E-504499271F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{7F9DE1D0-54D0-412B-B09D-CB7E0B7C1C07}"/>
+    <workbookView xWindow="2710" yWindow="2480" windowWidth="10180" windowHeight="8170" activeTab="2" xr2:uid="{7F9DE1D0-54D0-412B-B09D-CB7E0B7C1C07}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>Diya</t>
   </si>
@@ -64,6 +65,9 @@
   </si>
   <si>
     <t>Email_ID</t>
+  </si>
+  <si>
+    <t>diya</t>
   </si>
 </sst>
 </file>
@@ -517,7 +521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC039628-942D-432E-A93C-F3F7392934FA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -556,4 +562,38 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F124E615-8A5A-48DA-BEC8-B25A2B37D06D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>1234567890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>